--- a/leanCrm/datanew/physicalAreas/Predio/data/Predio.xlsx
+++ b/leanCrm/datanew/physicalAreas/Predio/data/Predio.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>String</t>
   </si>
@@ -57,27 +57,15 @@
     <t>LOCAL No.1</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>LOCAL No.2</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
     <t>LOCAL No.3</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>LOCAL No.4</t>
   </si>
   <si>
-    <t>L4</t>
-  </si>
-  <si>
     <t>LOCAL No.5</t>
   </si>
   <si>
@@ -91,13 +79,28 @@
   </si>
   <si>
     <t>A202</t>
+  </si>
+  <si>
+    <t>L1P1</t>
+  </si>
+  <si>
+    <t>L2P1</t>
+  </si>
+  <si>
+    <t>L3P1</t>
+  </si>
+  <si>
+    <t>L4P1</t>
+  </si>
+  <si>
+    <t>L5P1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,12 +234,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF5B5B5B"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -580,9 +577,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,10 +903,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -956,10 +955,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -968,55 +967,55 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/leanCrm/datanew/physicalAreas/Predio/data/Predio.xlsx
+++ b/leanCrm/datanew/physicalAreas/Predio/data/Predio.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
